--- a/WP2-requirement docs/MB functions and External Actors.xlsx
+++ b/WP2-requirement docs/MB functions and External Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="6" r:id="rId1"/>
@@ -409,10 +409,12 @@
     <t>Dispatcher, Driver, Traffic Management System (TMS), Trackside Train Detection (TTD), Train Integrity Management System</t>
   </si>
   <si>
-    <t>UGE:  OS is not figured in WP1 : On-sight L3 features are related to the sweeping functionality. No dedicated section for OS requirements: use of keywords. The function Speed and distance supervision is included in subset 26- 5 - page 35</t>
-  </si>
-  <si>
     <t>Sweeping</t>
+  </si>
+  <si>
+    <t>UGE:  OS is not figured in WP1 : On-sight L3 features are related to the sweeping functionality. 
+No dedicated section for OS requirements: use of keywords OS and on-sight to produce requirement diagram. 
+Sweeping and OS UC are quite different, we propose to add in the overview of UC OS 1) the function Speed and distance supervision which is included in the procedure OS in subset 26- 5 - page 35, 2) From requirement diagram, add Reserved status management, MA management, train position report and Integrity Information management functions</t>
   </si>
 </sst>
 </file>
@@ -906,7 +908,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="http://www.inaf.it/it/sedi/sede-centrale-nuova/direzione-scientifica/relazioni-internazionali/nuovo-logo-horizon-2020">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -918,7 +920,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -938,7 +940,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -967,7 +969,7 @@
         <xdr:cNvPr id="3" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -977,7 +979,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1015,7 +1017,7 @@
         <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,7 +1027,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1063,10 +1065,10 @@
         <xdr:cNvPr id="5" name="Picture 8" descr="C:\Users\Samrmmms\AppData\Local\Microsoft\Windows\INetCache\Content.MSO\4970809C.tmp">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1076,7 +1078,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1359,7 +1361,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2052,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2293,7 +2295,7 @@
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1" ht="25.5">
       <c r="A17" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>110</v>
@@ -2308,7 +2310,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="9" customFormat="1" ht="51">
+    <row r="18" spans="1:5" s="9" customFormat="1" ht="114.75">
       <c r="A18" s="10" t="s">
         <v>105</v>
       </c>
@@ -2322,10 +2324,10 @@
         <v>106</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="10" t="s">
         <v>54</v>
       </c>

--- a/WP2-requirement docs/MB functions and External Actors.xlsx
+++ b/WP2-requirement docs/MB functions and External Actors.xlsx
@@ -412,8 +412,8 @@
     <t>Sweeping</t>
   </si>
   <si>
-    <t>UGE:  OS is not figured in WP1 : On-sight L3 features are related to the sweeping functionality. 
-No dedicated section for OS requirements: use of keywords OS and on-sight to produce requirement diagram. 
+    <t>UGE:  OS is not described in WP1 : On-sight L3 features are related to the sweeping functionality. 
+No dedicated section for OS requirements in X2R3 : search for keywords OS and on-sight to produce requirement diagram. 
 Sweeping and OS UC are quite different, we propose to add in the overview of UC OS 1) the function Speed and distance supervision which is included in the procedure OS in subset 26- 5 - page 35, 2) From requirement diagram, add Reserved status management, MA management, train position report and Integrity Information management functions</t>
   </si>
 </sst>
@@ -908,7 +908,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="http://www.inaf.it/it/sedi/sede-centrale-nuova/direzione-scientifica/relazioni-internazionali/nuovo-logo-horizon-2020">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,7 +920,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -940,7 +940,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -969,7 +969,7 @@
         <xdr:cNvPr id="3" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -979,7 +979,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1017,7 +1017,7 @@
         <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1027,7 +1027,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1065,10 +1065,10 @@
         <xdr:cNvPr id="5" name="Picture 8" descr="C:\Users\Samrmmms\AppData\Local\Microsoft\Windows\INetCache\Content.MSO\4970809C.tmp">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,7 +1078,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1361,7 +1361,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1371,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -2054,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2310,7 +2310,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="9" customFormat="1" ht="114.75">
+    <row r="18" spans="1:5" s="15" customFormat="1" ht="124.5" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>105</v>
       </c>

--- a/WP2-requirement docs/MB functions and External Actors.xlsx
+++ b/WP2-requirement docs/MB functions and External Actors.xlsx
@@ -334,9 +334,6 @@
 Report of differences between SysML models and WP1</t>
   </si>
   <si>
-    <t>UGE: In red, addtionnal function and actors</t>
-  </si>
-  <si>
     <t>UC Owner comments</t>
   </si>
   <si>
@@ -415,6 +412,9 @@
     <t>UGE:  OS is not described in WP1 : On-sight L3 features are related to the sweeping functionality. 
 No dedicated section for OS requirements in X2R3 : search for keywords OS and on-sight to produce requirement diagram. 
 Sweeping and OS UC are quite different, we propose to add in the overview of UC OS 1) the function Speed and distance supervision which is included in the procedure OS in subset 26- 5 - page 35, 2) From requirement diagram, add Reserved status management, MA management, train position report and Integrity Information management functions</t>
+  </si>
+  <si>
+    <t>UGE: No dedicated section for sweeping requirements in X2R3 : search for keywords swept and sweeping to produce requirement diagram.  In red, addtionnal function and actors</t>
   </si>
 </sst>
 </file>
@@ -908,7 +908,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="http://www.inaf.it/it/sedi/sede-centrale-nuova/direzione-scientifica/relazioni-internazionali/nuovo-logo-horizon-2020">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,7 +920,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -940,7 +940,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -969,7 +969,7 @@
         <xdr:cNvPr id="3" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -979,7 +979,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1017,7 +1017,7 @@
         <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1027,7 +1027,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1065,10 +1065,10 @@
         <xdr:cNvPr id="5" name="Picture 8" descr="C:\Users\Samrmmms\AppData\Local\Microsoft\Windows\INetCache\Content.MSO\4970809C.tmp">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,7 +1078,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1361,7 +1361,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1683,7 +1683,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -2054,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" ht="38.25">
@@ -2145,7 +2145,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
@@ -2201,7 +2201,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>20</v>
@@ -2227,7 +2227,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>22</v>
@@ -2240,16 +2240,16 @@
         <v>23</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>117</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" ht="12.75">
@@ -2257,7 +2257,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>24</v>
@@ -2272,7 +2272,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>28</v>
@@ -2293,12 +2293,12 @@
       <c r="D16" s="14"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" s="9" customFormat="1" ht="25.5">
+    <row r="17" spans="1:5" s="9" customFormat="1" ht="38.25">
       <c r="A17" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>31</v>
@@ -2306,25 +2306,25 @@
       <c r="D17" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>103</v>
+      <c r="E17" s="17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="15" customFormat="1" ht="124.5" customHeight="1">
       <c r="A18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>106</v>
-      </c>
       <c r="E18" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25.5">
@@ -2335,7 +2335,7 @@
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
       <c r="E19" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:5">
